--- a/Modelos Doc Christiane LTDA/bancomed.xlsx
+++ b/Modelos Doc Christiane LTDA/bancomed.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\modelosdoc-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dingo\Desktop\Modelos20Christiane%20LTDA\Modelos%20Doc%20Christiane%20LTDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9CECE3-6DDC-460C-A549-BEFAAA3B1FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1BA623-192D-4DBB-BAC2-1E5299B4B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5B8000EA-2BCD-4C3A-A029-E554E452DFB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B8000EA-2BCD-4C3A-A029-E554E452DFB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Welcome" sheetId="2" r:id="rId1"/>
+    <sheet name="bancodedados" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Nome</t>
   </si>
@@ -58,15 +59,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Malcolm Wallace Lopes Soragi</t>
-  </si>
-  <si>
-    <t>Z05</t>
-  </si>
-  <si>
-    <t>Prontuário</t>
-  </si>
-  <si>
     <t>Endereço</t>
   </si>
   <si>
@@ -76,26 +68,146 @@
     <t>Registro</t>
   </si>
   <si>
-    <t>José Miguel de Castro Andrade</t>
-  </si>
-  <si>
-    <t>Bryan José dos Santos</t>
-  </si>
-  <si>
-    <t>Alameda Coronel Pires Nº 08</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>D89</t>
+    <t>Nome do Paciente</t>
+  </si>
+  <si>
+    <t>Data de Nascimento:</t>
+  </si>
+  <si>
+    <t>Sexo:</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Ocupação</t>
+  </si>
+  <si>
+    <t>Naturalidade</t>
+  </si>
+  <si>
+    <t>Escolaridade</t>
+  </si>
+  <si>
+    <t>Nome da Mãe</t>
+  </si>
+  <si>
+    <t>Nome do Pai</t>
+  </si>
+  <si>
+    <t>Identidade</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>Logradouro</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Telefone Fixo</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Celular 2</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ANAMNESE</t>
+  </si>
+  <si>
+    <t>Teodoro Sampaio,</t>
+  </si>
+  <si>
+    <t>Dra Cristiane Tiezzi Feitosa</t>
+  </si>
+  <si>
+    <t>CRM-SP 143364</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>Cep</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Celular 1</t>
+  </si>
+  <si>
+    <t>Anamnese</t>
+  </si>
+  <si>
+    <t>Outros Documentos</t>
+  </si>
+  <si>
+    <t>Solteiro</t>
+  </si>
+  <si>
+    <t>Auxiliar Administrativo</t>
+  </si>
+  <si>
+    <t>Brasileira</t>
+  </si>
+  <si>
+    <t>Ensino Superior</t>
+  </si>
+  <si>
+    <t>Leontina Lopes Corado</t>
+  </si>
+  <si>
+    <t>Eber José Soragi</t>
+  </si>
+  <si>
+    <t>40766323X</t>
+  </si>
+  <si>
+    <t>Rua José Miguel de Castro Andrade 822</t>
+  </si>
+  <si>
+    <t>Teodoro Sampaio</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Paciente alega sentir dores abdominais e dor de cabeça. Declara estar em uso de medicamentos para hipertensão.</t>
+  </si>
+  <si>
+    <t>Brenon Roberts Lopes Soragi</t>
+  </si>
+  <si>
+    <t>ID001</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +223,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -128,15 +282,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,10 +503,532 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F4549F-DCBB-EB1D-FADF-2CB8C76BA8EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="276225"/>
+          <a:ext cx="7924800" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D308214F-180E-28B1-1153-42D7097D63CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="485775" y="13820775"/>
+          <a:ext cx="8048625" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aharoni"/>
+                  <a:cs typeface="Aharoni"/>
+                </a:rPr>
+                <a:t>SALVAR</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aharoni"/>
+                  <a:cs typeface="Aharoni"/>
+                </a:rPr>
+                <a:t>PRONTUÁRIO</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>&gt;</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Button 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>&lt;</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Button 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="41148" rIns="36576" bIns="41148" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial Black"/>
+                </a:rPr>
+                <a:t>Visualizar Registros</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Button 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="41148" rIns="36576" bIns="41148" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial Black"/>
+                </a:rPr>
+                <a:t>Limpar Formulário</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +1066,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -307,7 +1172,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,197 +1314,1012 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411FA116-20CC-4E03-97E3-2E87262BDE97}">
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="B1:N64"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="K12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="G15" s="15">
+        <v>38435599884</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="K15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="18" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="K19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="21" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="F26" s="15">
+        <v>38435599884</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="G30" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="K30" s="15">
+        <v>19280000</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="F32" s="15">
+        <v>32821600</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="25"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="25"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="25"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="25"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="25"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="25"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="25"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="25"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="25"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="25"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="25"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="25"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="25"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="25"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="25"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="25"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="25"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="25"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="25"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="25"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="26"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="28"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="17">
+        <v>45870</v>
+      </c>
+      <c r="E60" s="18"/>
+    </row>
+    <row r="61" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I63" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I64" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B34:N34"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="I64:M64"/>
+    <mergeCell ref="B35:N58"/>
+    <mergeCell ref="B28:N28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B24:N24"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!SalvarAtendimento">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>495300</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId5" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ProximoRegistro">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId6" name="Button 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!RegistroAnterior">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId7" name="Button 4">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!InicializarVisualizacao">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId8" name="Button 5">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!LimparFormulario">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3866E93B-BF14-47A5-8E1E-7D4B23945F88}">
-  <dimension ref="A1:K7"/>
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="104.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>IF(C2="","",ROW()-1)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1">
+        <v>31906</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1">
-        <v>31906</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.58611111111111114</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45869</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1">
-        <v>45869</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:A7" si="0">IF(C3="","",ROW()-1)</f>
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1">
-        <v>38421</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="H3" s="1">
-        <v>45869</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>45869</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>31906</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="H4" s="1">
-        <v>45782</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>45782</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <v>38435599884</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>19280000</v>
+      </c>
+      <c r="R2">
+        <v>32821600</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="1">
+        <v>45870</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576 D1:K1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B2:B1048576 B1:Z1">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
